--- a/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/reemplazos y coberturas de docencia/asistencia martes 29 oct intfil.xlsx
+++ b/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/reemplazos y coberturas de docencia/asistencia martes 29 oct intfil.xlsx
@@ -478,12 +478,12 @@
   <dimension ref="A2:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
@@ -499,7 +499,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -539,17 +539,17 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -580,12 +580,12 @@
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="1"/>
@@ -634,7 +634,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="1"/>
@@ -650,7 +650,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="1"/>
@@ -658,7 +658,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="1"/>
@@ -674,7 +674,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="1"/>
